--- a/data/trans_orig/Q64A_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q64A_R-Provincia-trans_orig.xlsx
@@ -693,7 +693,7 @@
         <v>113.2510778619285</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>128.3327713551166</v>
+        <v>128.3327713551167</v>
       </c>
     </row>
     <row r="5">
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>78.44947276713104</v>
+        <v>79.36534299558174</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>100.4623143256759</v>
+        <v>100.7514056191201</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>96.45382757557881</v>
+        <v>94.63762844844803</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>123.7684838719753</v>
+        <v>124.6622759285715</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>41.82090914512441</v>
+        <v>40.91089463352604</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>76.36804501870837</v>
+        <v>76.19066394885662</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>92.36338508163357</v>
+        <v>94.00281813100426</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>100.4573274202032</v>
+        <v>101.6375853325393</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>67.42299978274306</v>
+        <v>67.62790528398888</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>95.7793597215995</v>
+        <v>93.85400924133532</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>98.39260553184795</v>
+        <v>100.1555449297966</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>117.6582518325912</v>
+        <v>117.7234356216464</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>111.2300500850777</v>
+        <v>110.9897417808591</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>144.8595975569686</v>
+        <v>148.0161047418809</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>138.4658676055639</v>
+        <v>136.7971357113798</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>158.0940664549008</v>
+        <v>155.6198151836541</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>69.1678262638773</v>
+        <v>68.46489339510421</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>113.8909943783434</v>
+        <v>115.8255911835616</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>130.8714508605929</v>
+        <v>131.6862226809743</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>124.0002102657017</v>
+        <v>125.2778102116897</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>90.5230487257205</v>
+        <v>89.64879494875414</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>128.2941334965754</v>
+        <v>125.787270090269</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>129.5806991372547</v>
+        <v>129.6707871031103</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>138.1345392113728</v>
+        <v>138.4413639525731</v>
       </c>
     </row>
     <row r="7">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>99.84104063115197</v>
+        <v>99.79751479803326</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>116.2790311208218</v>
+        <v>114.2699760645524</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>91.67641965352713</v>
+        <v>90.77438065301203</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>108.3002346584739</v>
+        <v>109.8357499801745</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>53.790096515587</v>
+        <v>53.31973787940002</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>68.33652269380437</v>
+        <v>67.64892513995154</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>69.35052029534587</v>
+        <v>69.60235527685384</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>92.35365550703337</v>
+        <v>92.87209939557863</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>87.18948950211201</v>
+        <v>86.67664513988387</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>100.7938650579398</v>
+        <v>101.0956902671789</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>85.46951715934294</v>
+        <v>86.10257846207806</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>106.9983201445144</v>
+        <v>107.9719019649361</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>127.623656426835</v>
+        <v>127.9990930662597</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>156.9826755583468</v>
+        <v>157.2537306740671</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>123.1509055754257</v>
+        <v>122.9149509811078</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>147.8378746541917</v>
+        <v>150.1375044335685</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>85.86227338098035</v>
+        <v>85.32437685159243</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>108.1462364704666</v>
+        <v>106.1310680054913</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>102.291057013743</v>
+        <v>102.5403145026935</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>122.8430461900386</v>
+        <v>122.6079141262632</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>110.3190173220504</v>
+        <v>109.740039618208</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>129.9059885368075</v>
+        <v>130.9116955289529</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>107.91823896225</v>
+        <v>109.3343746859472</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>132.5808533651196</v>
+        <v>134.0193497066342</v>
       </c>
     </row>
     <row r="10">
@@ -941,7 +941,7 @@
         <v>119.1500291633048</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>145.942960297552</v>
+        <v>145.9429602975521</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>88.26854244003594</v>
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>105.8000797071193</v>
+        <v>106.0244564927802</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>103.3269525222956</v>
+        <v>103.9530892973266</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>101.7973259859199</v>
+        <v>102.8105197799057</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>126.5408410795865</v>
+        <v>126.8255451823842</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>70.80002413459279</v>
+        <v>70.7631020076058</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>56.82982167427723</v>
+        <v>57.0562603243643</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>69.60144502515077</v>
+        <v>70.3708748678775</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>86.78115754483915</v>
+        <v>85.31453366055949</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>97.55900694131837</v>
+        <v>97.16997981373129</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>89.31758039364743</v>
+        <v>90.01629869903942</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>93.90017673070807</v>
+        <v>94.62505657650254</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>111.8570103585525</v>
+        <v>112.8560044714929</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>136.4392035701279</v>
+        <v>136.1858902770178</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>140.3850310477178</v>
+        <v>141.220087034246</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>138.1652346024172</v>
+        <v>138.9139131568371</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>166.3613296844382</v>
+        <v>168.1095126833616</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>110.9570635453606</v>
+        <v>112.9669696898476</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>90.96269228657657</v>
+        <v>88.11442226008288</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>116.1933347857729</v>
+        <v>118.170417383794</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>122.5496609603948</v>
+        <v>122.869831092451</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>122.8304147111107</v>
+        <v>121.2404500445331</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>117.9598546447575</v>
+        <v>118.6063460305585</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>123.4997368620895</v>
+        <v>123.1219486092392</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>140.1739899346323</v>
+        <v>139.8254433469855</v>
       </c>
     </row>
     <row r="13">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>107.4198730317303</v>
+        <v>106.8170975675376</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>111.3237215797327</v>
+        <v>110.0107209554769</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>120.9010922504393</v>
+        <v>122.2279548306196</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>115.3559832861794</v>
+        <v>115.8769070598922</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>60.9179589792148</v>
+        <v>60.73371433038147</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>81.92280511795043</v>
+        <v>83.17071939062711</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>93.65077271341359</v>
+        <v>92.40272345899656</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>103.6861742821433</v>
+        <v>102.3458899832034</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>91.71902628368433</v>
+        <v>91.81145274872347</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>102.6204326108297</v>
+        <v>102.6101266237971</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>115.4584754278111</v>
+        <v>114.645058822214</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>115.3753895856523</v>
+        <v>115.2410954342972</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>137.5821283099106</v>
+        <v>136.656794339921</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>151.2821360307546</v>
+        <v>147.8711110118547</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>176.1239837338058</v>
+        <v>176.774502606222</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>167.5317222098062</v>
+        <v>170.3013587541827</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>87.85855080130564</v>
+        <v>87.19872297658387</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>124.4387153424197</v>
+        <v>122.7704362258374</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>142.0829237974149</v>
+        <v>142.3899978825704</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>144.0983991582359</v>
+        <v>143.7542481635356</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>113.2958483362618</v>
+        <v>113.4566172257483</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>132.1383310972938</v>
+        <v>132.865767451934</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>153.7375766167424</v>
+        <v>154.2273793368796</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>149.8119240621335</v>
+        <v>149.613766059828</v>
       </c>
     </row>
     <row r="16">
@@ -1213,7 +1213,7 @@
         <v>109.2285450455569</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>131.684627075258</v>
+        <v>131.6846270752581</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>51.48963874977977</v>
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>70.34083642349837</v>
+        <v>70.98507931410495</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>95.24069042540731</v>
+        <v>94.43469903168031</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>89.8094872495511</v>
+        <v>89.88309530246272</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>117.5857344802721</v>
+        <v>116.5605909516864</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>35.83878471788811</v>
+        <v>36.32012714583686</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>79.74556684902272</v>
+        <v>80.0255502588803</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>65.24319823837385</v>
+        <v>65.61203984703661</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>99.39494217764499</v>
+        <v>100.9261062057128</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>63.28191517364931</v>
+        <v>63.40647083091707</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>96.47884531032473</v>
+        <v>95.03520937854449</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>84.30897789284701</v>
+        <v>85.67564459588976</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>112.806356013711</v>
+        <v>112.6756092577435</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>109.131562560523</v>
+        <v>110.204146990744</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>149.8681256164721</v>
+        <v>147.8913892480105</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>133.9399781974739</v>
+        <v>132.5071222032474</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>149.3184240582285</v>
+        <v>147.8951704541938</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>77.55058309498141</v>
+        <v>77.88591949361354</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>135.9396490008776</v>
+        <v>138.2051462925861</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>116.8580957713419</v>
+        <v>116.7427069110922</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>123.5142855164079</v>
+        <v>124.3287930874221</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>94.48987205080806</v>
+        <v>93.48345016723965</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>137.8006138173897</v>
+        <v>133.4637299641286</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>117.1876017833001</v>
+        <v>119.7152781034278</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>131.8311312781554</v>
+        <v>133.1470305173862</v>
       </c>
     </row>
     <row r="19">
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>94.78970382758695</v>
+        <v>94.76388360533392</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>133.2052196319717</v>
+        <v>129.4600507452234</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>135.9693893934946</v>
+        <v>135.1783661475324</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>136.320782622478</v>
+        <v>134.2216129067831</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>42.52865730824544</v>
+        <v>41.25194258399929</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>59.57019282246434</v>
+        <v>57.13708585132791</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>95.05706636256546</v>
+        <v>97.77329647486057</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>123.717956326892</v>
+        <v>122.8335548279501</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>79.3148022079822</v>
+        <v>78.6672770589967</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>113.5566887055906</v>
+        <v>113.048769516402</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>126.9362535206964</v>
+        <v>123.6298933516293</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>136.4617813578248</v>
+        <v>136.4984972477673</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>124.8672085181902</v>
+        <v>125.4370283320091</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>187.778688184999</v>
+        <v>185.2834637475667</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>179.2703417021274</v>
+        <v>179.9748587695336</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>177.2459810918469</v>
+        <v>176.7153165112735</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>73.25616017617611</v>
+        <v>72.26538567499617</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>103.6940345053928</v>
+        <v>104.2767098110198</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>143.3009071071767</v>
+        <v>146.8567823621033</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>170.0366162713727</v>
+        <v>171.978283859729</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>103.621404812775</v>
+        <v>103.2667471087514</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>155.1063792877732</v>
+        <v>154.5106957970688</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>160.0024918486365</v>
+        <v>158.1843360813233</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>167.406923655899</v>
+        <v>166.5364106165378</v>
       </c>
     </row>
     <row r="22">
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>89.52165309061074</v>
+        <v>89.16938138082817</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>114.3867904582436</v>
+        <v>115.0080369732533</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>86.80542252494507</v>
+        <v>86.6678055847981</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>110.9713225586077</v>
+        <v>112.0843929441828</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>56.66356507459137</v>
+        <v>57.44150563483301</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>73.54883412685543</v>
+        <v>74.35232793836343</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>64.63250819493345</v>
+        <v>65.35127991473942</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>98.04372176359983</v>
+        <v>98.15852762942401</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>79.974297742113</v>
+        <v>80.8349619352243</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>101.7123502234402</v>
+        <v>102.1057308290354</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>79.86575324934431</v>
+        <v>79.59082733213549</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>108.1954221676979</v>
+        <v>108.7706581192897</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>111.0656007105138</v>
+        <v>111.5014699439943</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>142.7510988552583</v>
+        <v>144.9900672094145</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>110.4696262289428</v>
+        <v>111.5155151120789</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>139.0253677365926</v>
+        <v>138.4722810129103</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>84.13516297790163</v>
+        <v>85.20553810771013</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>103.8423745808761</v>
+        <v>104.8802410547606</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>86.61943967484076</v>
+        <v>87.52496335608726</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>118.3161150091609</v>
+        <v>118.3252872796605</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>96.6451416653306</v>
+        <v>98.7871097237873</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>121.8130937326891</v>
+        <v>122.3531023224468</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>96.62686953287195</v>
+        <v>95.95461115505515</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>125.6138786024545</v>
+        <v>126.126179454178</v>
       </c>
     </row>
     <row r="25">
@@ -1645,7 +1645,7 @@
         <v>106.8110483719044</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>122.8188377631416</v>
+        <v>122.8188377631417</v>
       </c>
     </row>
     <row r="26">
@@ -1656,40 +1656,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>88.69279422697302</v>
+        <v>87.83953143104605</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>100.7360472281054</v>
+        <v>100.4482266096515</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>107.3946460234051</v>
+        <v>107.3987592627844</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>121.4329403741782</v>
+        <v>121.8352215697098</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>81.35613293023297</v>
+        <v>79.35275598621699</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>67.67388110397131</v>
+        <v>68.61394848611992</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>79.39127713134444</v>
+        <v>79.41688748036329</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>97.73547306581938</v>
+        <v>98.14651297498703</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>88.01439834356491</v>
+        <v>88.59881527314283</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>90.71293817170934</v>
+        <v>89.20385151055501</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>98.07060804534618</v>
+        <v>98.08053388411297</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>115.4520817244263</v>
+        <v>114.8170638705752</v>
       </c>
     </row>
     <row r="27">
@@ -1700,40 +1700,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>109.4484789161738</v>
+        <v>109.214718305158</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>123.4104708565038</v>
+        <v>123.828374254939</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>132.1427363789914</v>
+        <v>131.4353857893534</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>144.276524976011</v>
+        <v>145.5350976820484</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>106.6491214969121</v>
+        <v>106.0597300885636</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>89.87441848279217</v>
+        <v>90.79469253959631</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>102.7368863493381</v>
+        <v>102.5718112209492</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>118.9258184418159</v>
+        <v>118.8946822085219</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>104.267683917267</v>
+        <v>104.8656979454181</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>107.1098478149204</v>
+        <v>106.7741090989723</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>115.4752186522567</v>
+        <v>116.2255164812514</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>131.190693127438</v>
+        <v>130.7814209894802</v>
       </c>
     </row>
     <row r="28">
@@ -1792,40 +1792,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>100.2416406903324</v>
+        <v>100.2393262688478</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>118.6097944775666</v>
+        <v>119.1888575154554</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>110.9067631306913</v>
+        <v>110.413813972862</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>128.2605794010131</v>
+        <v>128.6711261082274</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>67.29605815321723</v>
+        <v>67.33010255593132</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>79.67720354532904</v>
+        <v>79.47521408741538</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>85.72078643653715</v>
+        <v>85.52287984955279</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>106.6389217232786</v>
+        <v>107.6453011873747</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>89.87733863314854</v>
+        <v>90.21410186652342</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>104.83185126896</v>
+        <v>104.6445725012589</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>101.3534900595675</v>
+        <v>101.3296780440662</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>120.497077764643</v>
+        <v>120.7151769259805</v>
       </c>
     </row>
     <row r="30">
@@ -1836,40 +1836,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>109.9327450119441</v>
+        <v>109.4656671523721</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>131.9210268280949</v>
+        <v>131.6271493516261</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>122.4936406435765</v>
+        <v>122.2970706532598</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>140.8989874549471</v>
+        <v>140.7470695948443</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>78.26500382994116</v>
+        <v>78.56874866732927</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>91.80098096100251</v>
+        <v>92.02364630247347</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>97.30949838171341</v>
+        <v>96.90424642262212</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>117.3929927892913</v>
+        <v>117.4278155005203</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>97.24199957398388</v>
+        <v>98.01262376484635</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>114.1725368231755</v>
+        <v>114.1724420512596</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>109.9931561325467</v>
+        <v>110.1213700920479</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>129.0921020421698</v>
+        <v>129.2383079993631</v>
       </c>
     </row>
     <row r="31">
